--- a/benchmark/SingleRunOneBulkCal/output_mean_median_std.xlsx
+++ b/benchmark/SingleRunOneBulkCal/output_mean_median_std.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="run_no_02As1" sheetId="1" r:id="rId1"/>
-    <sheet name="run_no_01As1" sheetId="2" r:id="rId2"/>
-    <sheet name="run_no_04As1" sheetId="3" r:id="rId3"/>
-    <sheet name="run_no_03As1" sheetId="4" r:id="rId4"/>
-    <sheet name="run_no_05As1" sheetId="5" r:id="rId5"/>
-    <sheet name="run_no_06As1" sheetId="6" r:id="rId6"/>
-    <sheet name="run_no_15As1" sheetId="7" r:id="rId7"/>
-    <sheet name="run_no_17As1" sheetId="8" r:id="rId8"/>
-    <sheet name="run_no_14As1" sheetId="9" r:id="rId9"/>
+    <sheet name="02As1" sheetId="1" r:id="rId1"/>
+    <sheet name="01As1" sheetId="2" r:id="rId2"/>
+    <sheet name="04As1" sheetId="3" r:id="rId3"/>
+    <sheet name="03As1" sheetId="4" r:id="rId4"/>
+    <sheet name="05As1" sheetId="5" r:id="rId5"/>
+    <sheet name="06As1" sheetId="6" r:id="rId6"/>
+    <sheet name="15As1" sheetId="7" r:id="rId7"/>
+    <sheet name="17As1" sheetId="8" r:id="rId8"/>
+    <sheet name="14As1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
